--- a/Spreadsheet Applications/Creating Charts, Diagrams, and Templates/Topaz Order.xlsx
+++ b/Spreadsheet Applications/Creating Charts, Diagrams, and Templates/Topaz Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating Charts^J Diagrams^J and Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{4BC729E0-3494-4870-9427-731D4D620D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D20B8DC-C90E-4DBA-B4A2-3F0F21C58C95}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{4BC729E0-3494-4870-9427-731D4D620D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8237C7-22DF-42F1-934E-ADE186F97B6A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Booth Order" sheetId="1" r:id="rId1"/>
@@ -321,18 +321,18 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -767,41 +767,41 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>42656</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,13 +809,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -826,7 +826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -858,15 +858,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -883,7 +883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
@@ -901,7 +901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
@@ -919,7 +919,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
@@ -955,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
@@ -973,7 +973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
@@ -991,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="10" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="8">
         <f>SUM(F18:F39)</f>
         <v>665</v>
@@ -1180,6 +1180,9 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>